--- a/FlickerFaces.data/FF4_3/FF4_3_MarkupXLS_2000.xlsx
+++ b/FlickerFaces.data/FF4_3/FF4_3_MarkupXLS_2000.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="16">
   <si>
     <t>Tr</t>
   </si>
@@ -81,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -91,14 +91,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,28 +130,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -168,7 +176,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3">
@@ -194,7 +202,7 @@
       <c r="C4">
         <v>19019</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E4">
@@ -220,7 +228,7 @@
       <c r="C5">
         <v>22352</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
@@ -246,7 +254,7 @@
       <c r="C6">
         <v>28869</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E6">
@@ -272,7 +280,7 @@
       <c r="C7">
         <v>32202</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E7">
@@ -298,7 +306,7 @@
       <c r="C8">
         <v>38719</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E8">
@@ -324,7 +332,7 @@
       <c r="C9">
         <v>42053</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E9">
@@ -350,7 +358,7 @@
       <c r="C10">
         <v>48668</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E10">
@@ -376,7 +384,7 @@
       <c r="C11">
         <v>52002</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E11">
@@ -402,7 +410,7 @@
       <c r="C12">
         <v>58218</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E12">
@@ -428,7 +436,7 @@
       <c r="C13">
         <v>61552</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E13">
@@ -454,7 +462,7 @@
       <c r="C14">
         <v>68485</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E14">
@@ -480,7 +488,7 @@
       <c r="C15">
         <v>71818</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E15">
@@ -506,7 +514,7 @@
       <c r="C16">
         <v>78067</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E16">
@@ -532,7 +540,7 @@
       <c r="C17">
         <v>81401</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E17">
@@ -558,7 +566,7 @@
       <c r="C18">
         <v>87367</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E18">
@@ -584,7 +592,7 @@
       <c r="C19">
         <v>90701</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E19">
@@ -610,7 +618,7 @@
       <c r="C20">
         <v>96649</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E20">
@@ -636,7 +644,7 @@
       <c r="C21">
         <v>99984</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E21">
@@ -662,7 +670,7 @@
       <c r="C22">
         <v>106333</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E22">
@@ -688,7 +696,7 @@
       <c r="C23">
         <v>109666</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E23">
@@ -714,7 +722,7 @@
       <c r="C24">
         <v>116032</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E24">
@@ -740,7 +748,7 @@
       <c r="C25">
         <v>119367</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E25">
@@ -760,14 +768,20 @@
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>126316</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -780,14 +794,20 @@
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>129648</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -801,12 +821,12 @@
         <v>14</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>139415</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E28">
@@ -827,12 +847,12 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>142748</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E29">
@@ -853,12 +873,12 @@
         <v>15</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>149715</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E30">
@@ -879,12 +899,12 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>153049</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E31">
@@ -905,12 +925,12 @@
         <v>16</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>158581</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E32">
@@ -931,12 +951,12 @@
         <v>16</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>161915</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E33">
@@ -957,12 +977,12 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34">
         <v>168131</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E34">
@@ -983,12 +1003,12 @@
         <v>17</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>171464</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E35">
@@ -1009,12 +1029,12 @@
         <v>18</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>178114</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E36">
@@ -1035,12 +1055,12 @@
         <v>18</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>181447</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E37">
@@ -1061,12 +1081,12 @@
         <v>19</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>187331</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E38">
@@ -1087,12 +1107,12 @@
         <v>19</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>190663</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E39">
@@ -1113,12 +1133,12 @@
         <v>20</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C40">
         <v>197697</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E40">
@@ -1139,12 +1159,12 @@
         <v>20</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <v>201030</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E41">
@@ -1165,12 +1185,12 @@
         <v>21</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>210514</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E42">
@@ -1191,12 +1211,12 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>213846</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E43">
@@ -1217,12 +1237,12 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>220080</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E44">
@@ -1243,12 +1263,12 @@
         <v>22</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>223413</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E45">
@@ -1269,12 +1289,12 @@
         <v>23</v>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>229930</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E46">
@@ -1295,12 +1315,12 @@
         <v>23</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>233262</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E47">
@@ -1321,12 +1341,12 @@
         <v>24</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>239379</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E48">
@@ -1347,12 +1367,12 @@
         <v>24</v>
       </c>
       <c r="B49">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49">
         <v>242712</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E49">
@@ -1373,12 +1393,12 @@
         <v>25</v>
       </c>
       <c r="B50">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50">
         <v>250712</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E50">
@@ -1399,12 +1419,12 @@
         <v>25</v>
       </c>
       <c r="B51">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C51">
         <v>254045</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E51">
@@ -1425,12 +1445,12 @@
         <v>26</v>
       </c>
       <c r="B52">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>259978</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E52">
@@ -1451,12 +1471,12 @@
         <v>26</v>
       </c>
       <c r="B53">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>263312</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E53">
@@ -1477,12 +1497,12 @@
         <v>27</v>
       </c>
       <c r="B54">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>269728</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E54">
@@ -1503,12 +1523,12 @@
         <v>27</v>
       </c>
       <c r="B55">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C55">
         <v>273062</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E55">
@@ -1528,14 +1548,20 @@
       <c r="A56">
         <v>28</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>279362</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1548,14 +1574,20 @@
       <c r="A57">
         <v>28</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57">
+        <v>282694</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -1569,12 +1601,12 @@
         <v>29</v>
       </c>
       <c r="B58">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>288578</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E58">
@@ -1595,12 +1627,12 @@
         <v>29</v>
       </c>
       <c r="B59">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>291911</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E59">
@@ -1621,12 +1653,12 @@
         <v>30</v>
       </c>
       <c r="B60">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C60">
         <v>298644</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E60">
@@ -1647,12 +1679,12 @@
         <v>30</v>
       </c>
       <c r="B61">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>301977</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E61">
@@ -1673,12 +1705,12 @@
         <v>31</v>
       </c>
       <c r="B62">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C62">
         <v>309043</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E62">
@@ -1699,12 +1731,12 @@
         <v>31</v>
       </c>
       <c r="B63">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C63">
         <v>312377</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E63">
@@ -1725,12 +1757,12 @@
         <v>32</v>
       </c>
       <c r="B64">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>321127</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E64">
@@ -1751,12 +1783,12 @@
         <v>32</v>
       </c>
       <c r="B65">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C65">
         <v>324460</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E65">
@@ -1777,12 +1809,12 @@
         <v>33</v>
       </c>
       <c r="B66">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>330943</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E66">
@@ -1803,12 +1835,12 @@
         <v>33</v>
       </c>
       <c r="B67">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C67">
         <v>334276</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E67">
@@ -1829,12 +1861,12 @@
         <v>34</v>
       </c>
       <c r="B68">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C68">
         <v>340993</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E68">
@@ -1855,12 +1887,12 @@
         <v>34</v>
       </c>
       <c r="B69">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C69">
         <v>344326</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E69">
@@ -1881,12 +1913,12 @@
         <v>35</v>
       </c>
       <c r="B70">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C70">
         <v>352176</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E70">
@@ -1907,12 +1939,12 @@
         <v>35</v>
       </c>
       <c r="B71">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C71">
         <v>355510</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E71">
@@ -1933,12 +1965,12 @@
         <v>36</v>
       </c>
       <c r="B72">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>361842</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E72">
@@ -1959,12 +1991,12 @@
         <v>36</v>
       </c>
       <c r="B73">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>365176</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E73">
@@ -1985,12 +2017,12 @@
         <v>37</v>
       </c>
       <c r="B74">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C74">
         <v>372158</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E74">
@@ -2011,12 +2043,12 @@
         <v>37</v>
       </c>
       <c r="B75">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C75">
         <v>375492</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E75">
@@ -2037,12 +2069,12 @@
         <v>38</v>
       </c>
       <c r="B76">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C76">
         <v>382358</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E76">
@@ -2063,12 +2095,12 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C77">
         <v>385692</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E77">
@@ -2089,12 +2121,12 @@
         <v>39</v>
       </c>
       <c r="B78">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C78">
         <v>394941</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E78">
@@ -2115,12 +2147,12 @@
         <v>39</v>
       </c>
       <c r="B79">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C79">
         <v>398275</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E79">
@@ -2141,12 +2173,12 @@
         <v>40</v>
       </c>
       <c r="B80">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C80">
         <v>404774</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E80">
@@ -2167,12 +2199,12 @@
         <v>40</v>
       </c>
       <c r="B81">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C81">
         <v>408108</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E81">
